--- a/resource_api/finans/konteyner_islem/sablonlar/konteyner_ayrinti_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/sablonlar/konteyner_ayrinti_listesi.xlsx
@@ -1,68 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\Doktor-Web\doktor-servis\resource_api\finans\konteyner_islem\sablonlar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\NewProjects\gitPull\newprojectservis\resource_api\finans\konteyner_islem\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC298EB0-1950-4F48-A1AB-7065936AC1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CA6272-8FCF-4908-98CE-4B7B0A39BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5028" yWindow="576" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$301</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Siparis No</t>
+    <t>Po</t>
   </si>
   <si>
-    <t>Y.Tarihi</t>
+    <t>Sipariş Tarihi</t>
   </si>
   <si>
-    <t>Y.Tipi</t>
+    <t>Yükleme Tarihi</t>
+  </si>
+  <si>
+    <t>Durum</t>
   </si>
   <si>
     <t>Toplam</t>
   </si>
   <si>
-    <t>Kalan</t>
+    <t>Ödenen</t>
   </si>
   <si>
-    <t>Vade</t>
+    <t>Kalan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;\([$$-409]#,##0.00\);[$$-409]#,##0.00;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +65,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,16 +91,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,41 +108,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -214,9 +177,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -249,9 +212,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -431,59 +394,2298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:G453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2:G453"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E302" s="5"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+    </row>
+    <row r="253" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="255" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+    </row>
+    <row r="259" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="263" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="271" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+    </row>
+    <row r="273" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+    </row>
+    <row r="274" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+    </row>
+    <row r="275" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+    </row>
+    <row r="276" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+    </row>
+    <row r="277" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+    </row>
+    <row r="279" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+    </row>
+    <row r="280" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+    </row>
+    <row r="281" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+    </row>
+    <row r="282" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+    </row>
+    <row r="283" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+    </row>
+    <row r="284" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+    </row>
+    <row r="285" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+    </row>
+    <row r="286" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+    </row>
+    <row r="287" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+    </row>
+    <row r="288" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+    </row>
+    <row r="289" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+    </row>
+    <row r="290" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+    </row>
+    <row r="291" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+    </row>
+    <row r="292" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+    </row>
+    <row r="293" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+    </row>
+    <row r="294" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+    </row>
+    <row r="295" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+    </row>
+    <row r="296" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+    </row>
+    <row r="297" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+    </row>
+    <row r="298" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+    </row>
+    <row r="299" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+    </row>
+    <row r="300" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+    </row>
+    <row r="301" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+    </row>
+    <row r="302" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+    </row>
+    <row r="303" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+    </row>
+    <row r="304" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+    </row>
+    <row r="305" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+    </row>
+    <row r="306" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+    </row>
+    <row r="307" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+    </row>
+    <row r="308" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+    </row>
+    <row r="309" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+    </row>
+    <row r="310" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+    </row>
+    <row r="311" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+    </row>
+    <row r="312" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+    </row>
+    <row r="313" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+    </row>
+    <row r="314" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+    </row>
+    <row r="315" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+    </row>
+    <row r="316" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+    </row>
+    <row r="317" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+    </row>
+    <row r="318" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+    </row>
+    <row r="319" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
+    </row>
+    <row r="320" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
+    </row>
+    <row r="321" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+      <c r="G321" s="2"/>
+    </row>
+    <row r="322" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+      <c r="G322" s="2"/>
+    </row>
+    <row r="323" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+      <c r="G323" s="2"/>
+    </row>
+    <row r="324" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
+    </row>
+    <row r="325" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
+    </row>
+    <row r="326" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
+    </row>
+    <row r="327" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
+    </row>
+    <row r="328" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+    </row>
+    <row r="329" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
+      <c r="G329" s="2"/>
+    </row>
+    <row r="330" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
+    </row>
+    <row r="331" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="2"/>
+    </row>
+    <row r="332" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
+    </row>
+    <row r="333" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+    </row>
+    <row r="334" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="335" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
+    </row>
+    <row r="336" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+    </row>
+    <row r="337" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+    </row>
+    <row r="338" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+    </row>
+    <row r="339" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+    </row>
+    <row r="340" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+    </row>
+    <row r="341" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
+    </row>
+    <row r="342" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="343" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+    </row>
+    <row r="345" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
+    </row>
+    <row r="346" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
+    </row>
+    <row r="347" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
+    </row>
+    <row r="348" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+    </row>
+    <row r="349" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
+    </row>
+    <row r="350" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="351" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
+    </row>
+    <row r="352" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+    </row>
+    <row r="353" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
+    </row>
+    <row r="354" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+    </row>
+    <row r="355" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
+    </row>
+    <row r="356" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
+    </row>
+    <row r="357" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
+    </row>
+    <row r="358" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+    </row>
+    <row r="359" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
+    </row>
+    <row r="360" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
+    </row>
+    <row r="361" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
+    </row>
+    <row r="362" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+    </row>
+    <row r="363" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E363" s="2"/>
+      <c r="F363" s="2"/>
+      <c r="G363" s="2"/>
+    </row>
+    <row r="364" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
+    </row>
+    <row r="365" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
+    </row>
+    <row r="366" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+    </row>
+    <row r="367" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E367" s="2"/>
+      <c r="F367" s="2"/>
+      <c r="G367" s="2"/>
+    </row>
+    <row r="368" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
+    </row>
+    <row r="369" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E369" s="2"/>
+      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
+    </row>
+    <row r="370" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+    </row>
+    <row r="371" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+    </row>
+    <row r="372" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+    </row>
+    <row r="373" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
+    </row>
+    <row r="374" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+    </row>
+    <row r="375" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
+    </row>
+    <row r="376" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+    </row>
+    <row r="377" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
+    </row>
+    <row r="378" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
+    </row>
+    <row r="379" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E379" s="2"/>
+      <c r="F379" s="2"/>
+      <c r="G379" s="2"/>
+    </row>
+    <row r="380" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E380" s="2"/>
+      <c r="F380" s="2"/>
+      <c r="G380" s="2"/>
+    </row>
+    <row r="381" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E381" s="2"/>
+      <c r="F381" s="2"/>
+      <c r="G381" s="2"/>
+    </row>
+    <row r="382" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
+    </row>
+    <row r="383" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E383" s="2"/>
+      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
+    </row>
+    <row r="384" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E384" s="2"/>
+      <c r="F384" s="2"/>
+      <c r="G384" s="2"/>
+    </row>
+    <row r="385" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E385" s="2"/>
+      <c r="F385" s="2"/>
+      <c r="G385" s="2"/>
+    </row>
+    <row r="386" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E386" s="2"/>
+      <c r="F386" s="2"/>
+      <c r="G386" s="2"/>
+    </row>
+    <row r="387" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E387" s="2"/>
+      <c r="F387" s="2"/>
+      <c r="G387" s="2"/>
+    </row>
+    <row r="388" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E388" s="2"/>
+      <c r="F388" s="2"/>
+      <c r="G388" s="2"/>
+    </row>
+    <row r="389" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E389" s="2"/>
+      <c r="F389" s="2"/>
+      <c r="G389" s="2"/>
+    </row>
+    <row r="390" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
+    </row>
+    <row r="391" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E391" s="2"/>
+      <c r="F391" s="2"/>
+      <c r="G391" s="2"/>
+    </row>
+    <row r="392" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E392" s="2"/>
+      <c r="F392" s="2"/>
+      <c r="G392" s="2"/>
+    </row>
+    <row r="393" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E393" s="2"/>
+      <c r="F393" s="2"/>
+      <c r="G393" s="2"/>
+    </row>
+    <row r="394" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
+    </row>
+    <row r="395" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E395" s="2"/>
+      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
+    </row>
+    <row r="396" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E396" s="2"/>
+      <c r="F396" s="2"/>
+      <c r="G396" s="2"/>
+    </row>
+    <row r="397" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E397" s="2"/>
+      <c r="F397" s="2"/>
+      <c r="G397" s="2"/>
+    </row>
+    <row r="398" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
+      <c r="G398" s="2"/>
+    </row>
+    <row r="399" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E399" s="2"/>
+      <c r="F399" s="2"/>
+      <c r="G399" s="2"/>
+    </row>
+    <row r="400" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E400" s="2"/>
+      <c r="F400" s="2"/>
+      <c r="G400" s="2"/>
+    </row>
+    <row r="401" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E401" s="2"/>
+      <c r="F401" s="2"/>
+      <c r="G401" s="2"/>
+    </row>
+    <row r="402" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E402" s="2"/>
+      <c r="F402" s="2"/>
+      <c r="G402" s="2"/>
+    </row>
+    <row r="403" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E403" s="2"/>
+      <c r="F403" s="2"/>
+      <c r="G403" s="2"/>
+    </row>
+    <row r="404" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E404" s="2"/>
+      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
+    </row>
+    <row r="405" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E405" s="2"/>
+      <c r="F405" s="2"/>
+      <c r="G405" s="2"/>
+    </row>
+    <row r="406" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E406" s="2"/>
+      <c r="F406" s="2"/>
+      <c r="G406" s="2"/>
+    </row>
+    <row r="407" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
+      <c r="G407" s="2"/>
+    </row>
+    <row r="408" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E408" s="2"/>
+      <c r="F408" s="2"/>
+      <c r="G408" s="2"/>
+    </row>
+    <row r="409" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E409" s="2"/>
+      <c r="F409" s="2"/>
+      <c r="G409" s="2"/>
+    </row>
+    <row r="410" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
+    </row>
+    <row r="411" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E411" s="2"/>
+      <c r="F411" s="2"/>
+      <c r="G411" s="2"/>
+    </row>
+    <row r="412" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E412" s="2"/>
+      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
+    </row>
+    <row r="413" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E413" s="2"/>
+      <c r="F413" s="2"/>
+      <c r="G413" s="2"/>
+    </row>
+    <row r="414" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E414" s="2"/>
+      <c r="F414" s="2"/>
+      <c r="G414" s="2"/>
+    </row>
+    <row r="415" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
+    </row>
+    <row r="416" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="2"/>
+    </row>
+    <row r="417" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
+    </row>
+    <row r="418" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E418" s="2"/>
+      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
+    </row>
+    <row r="419" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
+    </row>
+    <row r="420" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E420" s="2"/>
+      <c r="F420" s="2"/>
+      <c r="G420" s="2"/>
+    </row>
+    <row r="421" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E421" s="2"/>
+      <c r="F421" s="2"/>
+      <c r="G421" s="2"/>
+    </row>
+    <row r="422" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E422" s="2"/>
+      <c r="F422" s="2"/>
+      <c r="G422" s="2"/>
+    </row>
+    <row r="423" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
+    </row>
+    <row r="424" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E424" s="2"/>
+      <c r="F424" s="2"/>
+      <c r="G424" s="2"/>
+    </row>
+    <row r="425" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="2"/>
+    </row>
+    <row r="426" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
+    </row>
+    <row r="427" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E427" s="2"/>
+      <c r="F427" s="2"/>
+      <c r="G427" s="2"/>
+    </row>
+    <row r="428" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E428" s="2"/>
+      <c r="F428" s="2"/>
+      <c r="G428" s="2"/>
+    </row>
+    <row r="429" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E429" s="2"/>
+      <c r="F429" s="2"/>
+      <c r="G429" s="2"/>
+    </row>
+    <row r="430" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E430" s="2"/>
+      <c r="F430" s="2"/>
+      <c r="G430" s="2"/>
+    </row>
+    <row r="431" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
+      <c r="G431" s="2"/>
+    </row>
+    <row r="432" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E432" s="2"/>
+      <c r="F432" s="2"/>
+      <c r="G432" s="2"/>
+    </row>
+    <row r="433" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E433" s="2"/>
+      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
+    </row>
+    <row r="434" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
+    </row>
+    <row r="435" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E435" s="2"/>
+      <c r="F435" s="2"/>
+      <c r="G435" s="2"/>
+    </row>
+    <row r="436" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E436" s="2"/>
+      <c r="F436" s="2"/>
+      <c r="G436" s="2"/>
+    </row>
+    <row r="437" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
+    </row>
+    <row r="438" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E438" s="2"/>
+      <c r="F438" s="2"/>
+      <c r="G438" s="2"/>
+    </row>
+    <row r="439" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E439" s="2"/>
+      <c r="F439" s="2"/>
+      <c r="G439" s="2"/>
+    </row>
+    <row r="440" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
+    </row>
+    <row r="441" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
+    </row>
+    <row r="442" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E442" s="2"/>
+      <c r="F442" s="2"/>
+      <c r="G442" s="2"/>
+    </row>
+    <row r="443" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
+    </row>
+    <row r="444" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
+      <c r="G444" s="2"/>
+    </row>
+    <row r="445" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
+    </row>
+    <row r="446" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
+    </row>
+    <row r="447" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
+    </row>
+    <row r="448" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
+      <c r="G448" s="2"/>
+    </row>
+    <row r="449" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
+    </row>
+    <row r="450" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E450" s="2"/>
+      <c r="F450" s="2"/>
+      <c r="G450" s="2"/>
+    </row>
+    <row r="451" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E451" s="2"/>
+      <c r="F451" s="2"/>
+      <c r="G451" s="2"/>
+    </row>
+    <row r="452" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
+    </row>
+    <row r="453" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F301" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:F301">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>NOT(ISBLANK($F2))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B1 C1:F1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/resource_api/finans/konteyner_islem/sablonlar/konteyner_ayrinti_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/sablonlar/konteyner_ayrinti_listesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\NewProjects\gitPull\newprojectservis\resource_api\finans\konteyner_islem\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CA6272-8FCF-4908-98CE-4B7B0A39BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2876FBEB-54D5-49B1-A852-3437E207132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5028" yWindow="576" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Po</t>
+    <t>PO</t>
   </si>
   <si>
-    <t>Sipariş Tarihi</t>
+    <t>S.TARİHİ</t>
   </si>
   <si>
-    <t>Yükleme Tarihi</t>
+    <t>Y.TARİHİ</t>
   </si>
   <si>
-    <t>Durum</t>
+    <t>DURUM</t>
   </si>
   <si>
-    <t>Toplam</t>
+    <t>TOPLAM</t>
   </si>
   <si>
-    <t>Ödenen</t>
+    <t>ÖDENEN</t>
   </si>
   <si>
-    <t>Kalan</t>
+    <t>KALAN</t>
+  </si>
+  <si>
+    <t>ÖDEME TARİHİ</t>
+  </si>
+  <si>
+    <t>ÖDEME TARİHİ TUTAR</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -73,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -110,7 +122,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -394,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G453"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G453"/>
+      <selection activeCell="I2" sqref="I2:I500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,2266 +436,3006 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-    </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-    </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
-    </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-    </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
-    </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-    </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-    </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
-    </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-    </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-    </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-    </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-    </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-    </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-    </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-    </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
-    </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
-    </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-    </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-    </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-    </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-    </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-    </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-    </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
-    </row>
-    <row r="182" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
-    </row>
-    <row r="183" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
-    </row>
-    <row r="184" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-    </row>
-    <row r="185" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-    </row>
-    <row r="186" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-    </row>
-    <row r="187" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-    </row>
-    <row r="188" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-    </row>
-    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-    </row>
-    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
-    </row>
-    <row r="191" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
-    </row>
-    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
-    </row>
-    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
-    </row>
-    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
-    </row>
-    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
-    </row>
-    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
-    </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
-    </row>
-    <row r="198" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
-    </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
-    </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
-    </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
-    </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
-    </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I202" s="2"/>
+    </row>
+    <row r="203" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
-    </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I203" s="2"/>
+    </row>
+    <row r="204" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
-    </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I204" s="2"/>
+    </row>
+    <row r="205" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
-    </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I205" s="2"/>
+    </row>
+    <row r="206" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
-    </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I206" s="2"/>
+    </row>
+    <row r="207" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
-    </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I207" s="2"/>
+    </row>
+    <row r="208" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
-    </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I208" s="2"/>
+    </row>
+    <row r="209" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
-    </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
-    </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I210" s="2"/>
+    </row>
+    <row r="211" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
-    </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I211" s="2"/>
+    </row>
+    <row r="212" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
-    </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I212" s="2"/>
+    </row>
+    <row r="213" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
-    </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I213" s="2"/>
+    </row>
+    <row r="214" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-    </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I214" s="2"/>
+    </row>
+    <row r="215" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
-    </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I215" s="2"/>
+    </row>
+    <row r="216" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
-    </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I216" s="2"/>
+    </row>
+    <row r="217" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
-    </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I217" s="2"/>
+    </row>
+    <row r="218" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
-    </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I218" s="2"/>
+    </row>
+    <row r="219" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
-    </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I219" s="2"/>
+    </row>
+    <row r="220" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
-    </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I220" s="2"/>
+    </row>
+    <row r="221" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
-    </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I221" s="2"/>
+    </row>
+    <row r="222" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
-    </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I222" s="2"/>
+    </row>
+    <row r="223" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
-    </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I223" s="2"/>
+    </row>
+    <row r="224" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
-    </row>
-    <row r="225" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I224" s="2"/>
+    </row>
+    <row r="225" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
-    </row>
-    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I225" s="2"/>
+    </row>
+    <row r="226" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
-    </row>
-    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I226" s="2"/>
+    </row>
+    <row r="227" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
-    </row>
-    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I227" s="2"/>
+    </row>
+    <row r="228" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
-    </row>
-    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I228" s="2"/>
+    </row>
+    <row r="229" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
-    </row>
-    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I229" s="2"/>
+    </row>
+    <row r="230" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
-    </row>
-    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I230" s="2"/>
+    </row>
+    <row r="231" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
-    </row>
-    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I231" s="2"/>
+    </row>
+    <row r="232" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
-    </row>
-    <row r="233" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I232" s="2"/>
+    </row>
+    <row r="233" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
-    </row>
-    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I233" s="2"/>
+    </row>
+    <row r="234" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
-    </row>
-    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I234" s="2"/>
+    </row>
+    <row r="235" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
-    </row>
-    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I235" s="2"/>
+    </row>
+    <row r="236" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
-    </row>
-    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I236" s="2"/>
+    </row>
+    <row r="237" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
-    </row>
-    <row r="238" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I237" s="2"/>
+    </row>
+    <row r="238" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
-    </row>
-    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I238" s="2"/>
+    </row>
+    <row r="239" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
-    </row>
-    <row r="240" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I239" s="2"/>
+    </row>
+    <row r="240" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
-    </row>
-    <row r="241" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I240" s="2"/>
+    </row>
+    <row r="241" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
-    </row>
-    <row r="242" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I241" s="2"/>
+    </row>
+    <row r="242" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
-    </row>
-    <row r="243" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I242" s="2"/>
+    </row>
+    <row r="243" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
-    </row>
-    <row r="244" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I243" s="2"/>
+    </row>
+    <row r="244" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
-    </row>
-    <row r="245" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I244" s="2"/>
+    </row>
+    <row r="245" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
-    </row>
-    <row r="246" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I245" s="2"/>
+    </row>
+    <row r="246" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
-    </row>
-    <row r="247" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I246" s="2"/>
+    </row>
+    <row r="247" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
-    </row>
-    <row r="248" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I247" s="2"/>
+    </row>
+    <row r="248" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
-    </row>
-    <row r="249" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I248" s="2"/>
+    </row>
+    <row r="249" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
-    </row>
-    <row r="250" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I249" s="2"/>
+    </row>
+    <row r="250" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
-    </row>
-    <row r="251" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I250" s="2"/>
+    </row>
+    <row r="251" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
-    </row>
-    <row r="252" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I251" s="2"/>
+    </row>
+    <row r="252" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
-    </row>
-    <row r="253" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I252" s="2"/>
+    </row>
+    <row r="253" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
-    </row>
-    <row r="254" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I253" s="2"/>
+    </row>
+    <row r="254" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
-    </row>
-    <row r="255" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I254" s="2"/>
+    </row>
+    <row r="255" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
-    </row>
-    <row r="256" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I255" s="2"/>
+    </row>
+    <row r="256" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
-    </row>
-    <row r="257" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I256" s="2"/>
+    </row>
+    <row r="257" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
-    </row>
-    <row r="258" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I257" s="2"/>
+    </row>
+    <row r="258" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
-    </row>
-    <row r="259" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I258" s="2"/>
+    </row>
+    <row r="259" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
-    </row>
-    <row r="260" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I259" s="2"/>
+    </row>
+    <row r="260" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
-    </row>
-    <row r="261" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I260" s="2"/>
+    </row>
+    <row r="261" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
-    </row>
-    <row r="262" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I261" s="2"/>
+    </row>
+    <row r="262" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
-    </row>
-    <row r="263" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I262" s="2"/>
+    </row>
+    <row r="263" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
-    </row>
-    <row r="264" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I263" s="2"/>
+    </row>
+    <row r="264" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
-    </row>
-    <row r="265" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I264" s="2"/>
+    </row>
+    <row r="265" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
-    </row>
-    <row r="266" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I265" s="2"/>
+    </row>
+    <row r="266" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
-    </row>
-    <row r="267" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I266" s="2"/>
+    </row>
+    <row r="267" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
-    </row>
-    <row r="268" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I267" s="2"/>
+    </row>
+    <row r="268" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
-    </row>
-    <row r="269" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I268" s="2"/>
+    </row>
+    <row r="269" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
-    </row>
-    <row r="270" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I269" s="2"/>
+    </row>
+    <row r="270" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
-    </row>
-    <row r="271" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I270" s="2"/>
+    </row>
+    <row r="271" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
-    </row>
-    <row r="272" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I271" s="2"/>
+    </row>
+    <row r="272" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
-    </row>
-    <row r="273" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I272" s="2"/>
+    </row>
+    <row r="273" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
-    </row>
-    <row r="274" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I273" s="2"/>
+    </row>
+    <row r="274" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
-    </row>
-    <row r="275" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I274" s="2"/>
+    </row>
+    <row r="275" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
-    </row>
-    <row r="276" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I275" s="2"/>
+    </row>
+    <row r="276" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
-    </row>
-    <row r="277" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I276" s="2"/>
+    </row>
+    <row r="277" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
-    </row>
-    <row r="278" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I277" s="2"/>
+    </row>
+    <row r="278" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
-    </row>
-    <row r="279" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I278" s="2"/>
+    </row>
+    <row r="279" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
-    </row>
-    <row r="280" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I279" s="2"/>
+    </row>
+    <row r="280" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
-    </row>
-    <row r="281" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I280" s="2"/>
+    </row>
+    <row r="281" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
-    </row>
-    <row r="282" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I281" s="2"/>
+    </row>
+    <row r="282" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
-    </row>
-    <row r="283" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I282" s="2"/>
+    </row>
+    <row r="283" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
-    </row>
-    <row r="284" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I283" s="2"/>
+    </row>
+    <row r="284" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
-    </row>
-    <row r="285" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I284" s="2"/>
+    </row>
+    <row r="285" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
-    </row>
-    <row r="286" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I285" s="2"/>
+    </row>
+    <row r="286" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
-    </row>
-    <row r="287" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I286" s="2"/>
+    </row>
+    <row r="287" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
-    </row>
-    <row r="288" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I287" s="2"/>
+    </row>
+    <row r="288" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
-    </row>
-    <row r="289" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I288" s="2"/>
+    </row>
+    <row r="289" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
-    </row>
-    <row r="290" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I289" s="2"/>
+    </row>
+    <row r="290" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
-    </row>
-    <row r="291" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I290" s="2"/>
+    </row>
+    <row r="291" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
-    </row>
-    <row r="292" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I291" s="2"/>
+    </row>
+    <row r="292" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
-    </row>
-    <row r="293" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I292" s="2"/>
+    </row>
+    <row r="293" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
-    </row>
-    <row r="294" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I293" s="2"/>
+    </row>
+    <row r="294" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
-    </row>
-    <row r="295" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I294" s="2"/>
+    </row>
+    <row r="295" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
-    </row>
-    <row r="296" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I295" s="2"/>
+    </row>
+    <row r="296" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
-    </row>
-    <row r="297" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I296" s="2"/>
+    </row>
+    <row r="297" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
-    </row>
-    <row r="298" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I297" s="2"/>
+    </row>
+    <row r="298" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
-    </row>
-    <row r="299" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I298" s="2"/>
+    </row>
+    <row r="299" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
-    </row>
-    <row r="300" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I299" s="2"/>
+    </row>
+    <row r="300" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
-    </row>
-    <row r="301" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I300" s="2"/>
+    </row>
+    <row r="301" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
-    </row>
-    <row r="302" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I301" s="2"/>
+    </row>
+    <row r="302" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
-    </row>
-    <row r="303" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I302" s="2"/>
+    </row>
+    <row r="303" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
-    </row>
-    <row r="304" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I303" s="2"/>
+    </row>
+    <row r="304" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
-    </row>
-    <row r="305" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I304" s="2"/>
+    </row>
+    <row r="305" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
-    </row>
-    <row r="306" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I305" s="2"/>
+    </row>
+    <row r="306" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
-    </row>
-    <row r="307" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I306" s="2"/>
+    </row>
+    <row r="307" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
-    </row>
-    <row r="308" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I307" s="2"/>
+    </row>
+    <row r="308" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
-    </row>
-    <row r="309" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I308" s="2"/>
+    </row>
+    <row r="309" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
-    </row>
-    <row r="310" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I309" s="2"/>
+    </row>
+    <row r="310" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
-    </row>
-    <row r="311" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I310" s="2"/>
+    </row>
+    <row r="311" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
-    </row>
-    <row r="312" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I311" s="2"/>
+    </row>
+    <row r="312" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
-    </row>
-    <row r="313" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I312" s="2"/>
+    </row>
+    <row r="313" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
-    </row>
-    <row r="314" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I313" s="2"/>
+    </row>
+    <row r="314" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
-    </row>
-    <row r="315" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I314" s="2"/>
+    </row>
+    <row r="315" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
-    </row>
-    <row r="316" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I315" s="2"/>
+    </row>
+    <row r="316" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
-    </row>
-    <row r="317" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I316" s="2"/>
+    </row>
+    <row r="317" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
-    </row>
-    <row r="318" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I317" s="2"/>
+    </row>
+    <row r="318" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
-    </row>
-    <row r="319" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I318" s="2"/>
+    </row>
+    <row r="319" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
-    </row>
-    <row r="320" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I319" s="2"/>
+    </row>
+    <row r="320" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
-    </row>
-    <row r="321" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I320" s="2"/>
+    </row>
+    <row r="321" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
-    </row>
-    <row r="322" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I321" s="2"/>
+    </row>
+    <row r="322" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
-    </row>
-    <row r="323" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I322" s="2"/>
+    </row>
+    <row r="323" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
-    </row>
-    <row r="324" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I323" s="2"/>
+    </row>
+    <row r="324" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
-    </row>
-    <row r="325" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I324" s="2"/>
+    </row>
+    <row r="325" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
-    </row>
-    <row r="326" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I325" s="2"/>
+    </row>
+    <row r="326" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
-    </row>
-    <row r="327" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I326" s="2"/>
+    </row>
+    <row r="327" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
-    </row>
-    <row r="328" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I327" s="2"/>
+    </row>
+    <row r="328" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
-    </row>
-    <row r="329" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I328" s="2"/>
+    </row>
+    <row r="329" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
-    </row>
-    <row r="330" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I329" s="2"/>
+    </row>
+    <row r="330" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
-    </row>
-    <row r="331" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I330" s="2"/>
+    </row>
+    <row r="331" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
-    </row>
-    <row r="332" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I331" s="2"/>
+    </row>
+    <row r="332" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
-    </row>
-    <row r="333" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I332" s="2"/>
+    </row>
+    <row r="333" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
-    </row>
-    <row r="334" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I333" s="2"/>
+    </row>
+    <row r="334" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
-    </row>
-    <row r="335" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I334" s="2"/>
+    </row>
+    <row r="335" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
-    </row>
-    <row r="336" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I335" s="2"/>
+    </row>
+    <row r="336" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
-    </row>
-    <row r="337" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I336" s="2"/>
+    </row>
+    <row r="337" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
-    </row>
-    <row r="338" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I337" s="2"/>
+    </row>
+    <row r="338" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
-    </row>
-    <row r="339" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I338" s="2"/>
+    </row>
+    <row r="339" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
-    </row>
-    <row r="340" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I339" s="2"/>
+    </row>
+    <row r="340" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
-    </row>
-    <row r="341" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I340" s="2"/>
+    </row>
+    <row r="341" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
-    </row>
-    <row r="342" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I341" s="2"/>
+    </row>
+    <row r="342" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
-    </row>
-    <row r="343" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I342" s="2"/>
+    </row>
+    <row r="343" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
-    </row>
-    <row r="344" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I343" s="2"/>
+    </row>
+    <row r="344" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
-    </row>
-    <row r="345" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I344" s="2"/>
+    </row>
+    <row r="345" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
-    </row>
-    <row r="346" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I345" s="2"/>
+    </row>
+    <row r="346" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
-    </row>
-    <row r="347" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I346" s="2"/>
+    </row>
+    <row r="347" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
-    </row>
-    <row r="348" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I347" s="2"/>
+    </row>
+    <row r="348" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
-    </row>
-    <row r="349" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I348" s="2"/>
+    </row>
+    <row r="349" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
-    </row>
-    <row r="350" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I349" s="2"/>
+    </row>
+    <row r="350" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
-    </row>
-    <row r="351" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I350" s="2"/>
+    </row>
+    <row r="351" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
-    </row>
-    <row r="352" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I351" s="2"/>
+    </row>
+    <row r="352" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
-    </row>
-    <row r="353" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I352" s="2"/>
+    </row>
+    <row r="353" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
-    </row>
-    <row r="354" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I353" s="2"/>
+    </row>
+    <row r="354" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
-    </row>
-    <row r="355" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I354" s="2"/>
+    </row>
+    <row r="355" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
-    </row>
-    <row r="356" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I355" s="2"/>
+    </row>
+    <row r="356" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
-    </row>
-    <row r="357" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I356" s="2"/>
+    </row>
+    <row r="357" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
-    </row>
-    <row r="358" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I357" s="2"/>
+    </row>
+    <row r="358" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
-    </row>
-    <row r="359" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I358" s="2"/>
+    </row>
+    <row r="359" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
-    </row>
-    <row r="360" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I359" s="2"/>
+    </row>
+    <row r="360" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
-    </row>
-    <row r="361" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I360" s="2"/>
+    </row>
+    <row r="361" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
-    </row>
-    <row r="362" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I361" s="2"/>
+    </row>
+    <row r="362" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
-    </row>
-    <row r="363" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I362" s="2"/>
+    </row>
+    <row r="363" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
-    </row>
-    <row r="364" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I363" s="2"/>
+    </row>
+    <row r="364" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
-    </row>
-    <row r="365" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I364" s="2"/>
+    </row>
+    <row r="365" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
-    </row>
-    <row r="366" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I365" s="2"/>
+    </row>
+    <row r="366" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
-    </row>
-    <row r="367" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I366" s="2"/>
+    </row>
+    <row r="367" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
-    </row>
-    <row r="368" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I367" s="2"/>
+    </row>
+    <row r="368" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
-    </row>
-    <row r="369" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I368" s="2"/>
+    </row>
+    <row r="369" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
-    </row>
-    <row r="370" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I369" s="2"/>
+    </row>
+    <row r="370" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
-    </row>
-    <row r="371" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I370" s="2"/>
+    </row>
+    <row r="371" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
-    </row>
-    <row r="372" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I371" s="2"/>
+    </row>
+    <row r="372" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
-    </row>
-    <row r="373" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I372" s="2"/>
+    </row>
+    <row r="373" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
-    </row>
-    <row r="374" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I373" s="2"/>
+    </row>
+    <row r="374" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
-    </row>
-    <row r="375" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I374" s="2"/>
+    </row>
+    <row r="375" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
-    </row>
-    <row r="376" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I375" s="2"/>
+    </row>
+    <row r="376" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
-    </row>
-    <row r="377" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I376" s="2"/>
+    </row>
+    <row r="377" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
-    </row>
-    <row r="378" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I377" s="2"/>
+    </row>
+    <row r="378" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
-    </row>
-    <row r="379" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I378" s="2"/>
+    </row>
+    <row r="379" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
-    </row>
-    <row r="380" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I379" s="2"/>
+    </row>
+    <row r="380" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
-    </row>
-    <row r="381" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I380" s="2"/>
+    </row>
+    <row r="381" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
-    </row>
-    <row r="382" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I381" s="2"/>
+    </row>
+    <row r="382" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
-    </row>
-    <row r="383" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I382" s="2"/>
+    </row>
+    <row r="383" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
-    </row>
-    <row r="384" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I383" s="2"/>
+    </row>
+    <row r="384" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
-    </row>
-    <row r="385" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I384" s="2"/>
+    </row>
+    <row r="385" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
-    </row>
-    <row r="386" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I385" s="2"/>
+    </row>
+    <row r="386" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
-    </row>
-    <row r="387" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I386" s="2"/>
+    </row>
+    <row r="387" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
-    </row>
-    <row r="388" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I387" s="2"/>
+    </row>
+    <row r="388" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
-    </row>
-    <row r="389" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I388" s="2"/>
+    </row>
+    <row r="389" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
-    </row>
-    <row r="390" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I389" s="2"/>
+    </row>
+    <row r="390" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
-    </row>
-    <row r="391" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I390" s="2"/>
+    </row>
+    <row r="391" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
-    </row>
-    <row r="392" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I391" s="2"/>
+    </row>
+    <row r="392" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
-    </row>
-    <row r="393" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I392" s="2"/>
+    </row>
+    <row r="393" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
-    </row>
-    <row r="394" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I393" s="2"/>
+    </row>
+    <row r="394" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
-    </row>
-    <row r="395" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I394" s="2"/>
+    </row>
+    <row r="395" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
-    </row>
-    <row r="396" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I395" s="2"/>
+    </row>
+    <row r="396" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
-    </row>
-    <row r="397" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I396" s="2"/>
+    </row>
+    <row r="397" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
-    </row>
-    <row r="398" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I397" s="2"/>
+    </row>
+    <row r="398" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
-    </row>
-    <row r="399" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I398" s="2"/>
+    </row>
+    <row r="399" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
-    </row>
-    <row r="400" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I399" s="2"/>
+    </row>
+    <row r="400" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
-    </row>
-    <row r="401" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I400" s="2"/>
+    </row>
+    <row r="401" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
-    </row>
-    <row r="402" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I401" s="2"/>
+    </row>
+    <row r="402" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
-    </row>
-    <row r="403" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I402" s="2"/>
+    </row>
+    <row r="403" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
-    </row>
-    <row r="404" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I403" s="2"/>
+    </row>
+    <row r="404" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
-    </row>
-    <row r="405" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I404" s="2"/>
+    </row>
+    <row r="405" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
-    </row>
-    <row r="406" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I405" s="2"/>
+    </row>
+    <row r="406" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
-    </row>
-    <row r="407" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I406" s="2"/>
+    </row>
+    <row r="407" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
-    </row>
-    <row r="408" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I407" s="2"/>
+    </row>
+    <row r="408" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
-    </row>
-    <row r="409" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I408" s="2"/>
+    </row>
+    <row r="409" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
-    </row>
-    <row r="410" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I409" s="2"/>
+    </row>
+    <row r="410" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
-    </row>
-    <row r="411" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I410" s="2"/>
+    </row>
+    <row r="411" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
-    </row>
-    <row r="412" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I411" s="2"/>
+    </row>
+    <row r="412" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
-    </row>
-    <row r="413" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I412" s="2"/>
+    </row>
+    <row r="413" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
-    </row>
-    <row r="414" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I413" s="2"/>
+    </row>
+    <row r="414" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
-    </row>
-    <row r="415" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I414" s="2"/>
+    </row>
+    <row r="415" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
-    </row>
-    <row r="416" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I415" s="2"/>
+    </row>
+    <row r="416" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
-    </row>
-    <row r="417" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I416" s="2"/>
+    </row>
+    <row r="417" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
-    </row>
-    <row r="418" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I417" s="2"/>
+    </row>
+    <row r="418" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
-    </row>
-    <row r="419" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I418" s="2"/>
+    </row>
+    <row r="419" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
-    </row>
-    <row r="420" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I419" s="2"/>
+    </row>
+    <row r="420" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
-    </row>
-    <row r="421" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I420" s="2"/>
+    </row>
+    <row r="421" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
-    </row>
-    <row r="422" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I421" s="2"/>
+    </row>
+    <row r="422" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
-    </row>
-    <row r="423" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I422" s="2"/>
+    </row>
+    <row r="423" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
-    </row>
-    <row r="424" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I423" s="2"/>
+    </row>
+    <row r="424" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
-    </row>
-    <row r="425" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I424" s="2"/>
+    </row>
+    <row r="425" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
-    </row>
-    <row r="426" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I425" s="2"/>
+    </row>
+    <row r="426" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
-    </row>
-    <row r="427" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I426" s="2"/>
+    </row>
+    <row r="427" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
-    </row>
-    <row r="428" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I427" s="2"/>
+    </row>
+    <row r="428" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
-    </row>
-    <row r="429" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I428" s="2"/>
+    </row>
+    <row r="429" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
-    </row>
-    <row r="430" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I429" s="2"/>
+    </row>
+    <row r="430" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
-    </row>
-    <row r="431" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I430" s="2"/>
+    </row>
+    <row r="431" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
-    </row>
-    <row r="432" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I431" s="2"/>
+    </row>
+    <row r="432" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
-    </row>
-    <row r="433" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I432" s="2"/>
+    </row>
+    <row r="433" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
-    </row>
-    <row r="434" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I433" s="2"/>
+    </row>
+    <row r="434" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
-    </row>
-    <row r="435" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I434" s="2"/>
+    </row>
+    <row r="435" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
-    </row>
-    <row r="436" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I435" s="2"/>
+    </row>
+    <row r="436" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
-    </row>
-    <row r="437" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I436" s="2"/>
+    </row>
+    <row r="437" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
-    </row>
-    <row r="438" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I437" s="2"/>
+    </row>
+    <row r="438" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
-    </row>
-    <row r="439" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I438" s="2"/>
+    </row>
+    <row r="439" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
-    </row>
-    <row r="440" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I439" s="2"/>
+    </row>
+    <row r="440" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
-    </row>
-    <row r="441" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I440" s="2"/>
+    </row>
+    <row r="441" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
-    </row>
-    <row r="442" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I441" s="2"/>
+    </row>
+    <row r="442" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
-    </row>
-    <row r="443" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I442" s="2"/>
+    </row>
+    <row r="443" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
-    </row>
-    <row r="444" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I443" s="2"/>
+    </row>
+    <row r="444" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
-    </row>
-    <row r="445" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I444" s="2"/>
+    </row>
+    <row r="445" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
-    </row>
-    <row r="446" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I445" s="2"/>
+    </row>
+    <row r="446" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
-    </row>
-    <row r="447" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I446" s="2"/>
+    </row>
+    <row r="447" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
-    </row>
-    <row r="448" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I447" s="2"/>
+    </row>
+    <row r="448" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
-    </row>
-    <row r="449" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I448" s="2"/>
+    </row>
+    <row r="449" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
-    </row>
-    <row r="450" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I449" s="2"/>
+    </row>
+    <row r="450" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
-    </row>
-    <row r="451" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I450" s="2"/>
+    </row>
+    <row r="451" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
-    </row>
-    <row r="452" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I451" s="2"/>
+    </row>
+    <row r="452" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
-    </row>
-    <row r="453" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I452" s="2"/>
+    </row>
+    <row r="453" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
+      <c r="I453" s="2"/>
+    </row>
+    <row r="454" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
+      <c r="I454" s="2"/>
+    </row>
+    <row r="455" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
+      <c r="G455" s="2"/>
+      <c r="I455" s="2"/>
+    </row>
+    <row r="456" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E456" s="2"/>
+      <c r="F456" s="2"/>
+      <c r="G456" s="2"/>
+      <c r="I456" s="2"/>
+    </row>
+    <row r="457" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E457" s="2"/>
+      <c r="F457" s="2"/>
+      <c r="G457" s="2"/>
+      <c r="I457" s="2"/>
+    </row>
+    <row r="458" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E458" s="2"/>
+      <c r="F458" s="2"/>
+      <c r="G458" s="2"/>
+      <c r="I458" s="2"/>
+    </row>
+    <row r="459" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
+      <c r="I459" s="2"/>
+    </row>
+    <row r="460" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+      <c r="I460" s="2"/>
+    </row>
+    <row r="461" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
+      <c r="I461" s="2"/>
+    </row>
+    <row r="462" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
+      <c r="I462" s="2"/>
+    </row>
+    <row r="463" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E463" s="2"/>
+      <c r="F463" s="2"/>
+      <c r="G463" s="2"/>
+      <c r="I463" s="2"/>
+    </row>
+    <row r="464" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
+      <c r="I464" s="2"/>
+    </row>
+    <row r="465" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
+      <c r="I465" s="2"/>
+    </row>
+    <row r="466" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E466" s="2"/>
+      <c r="F466" s="2"/>
+      <c r="G466" s="2"/>
+      <c r="I466" s="2"/>
+    </row>
+    <row r="467" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E467" s="2"/>
+      <c r="F467" s="2"/>
+      <c r="G467" s="2"/>
+      <c r="I467" s="2"/>
+    </row>
+    <row r="468" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E468" s="2"/>
+      <c r="F468" s="2"/>
+      <c r="G468" s="2"/>
+      <c r="I468" s="2"/>
+    </row>
+    <row r="469" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E469" s="2"/>
+      <c r="F469" s="2"/>
+      <c r="G469" s="2"/>
+      <c r="I469" s="2"/>
+    </row>
+    <row r="470" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E470" s="2"/>
+      <c r="F470" s="2"/>
+      <c r="G470" s="2"/>
+      <c r="I470" s="2"/>
+    </row>
+    <row r="471" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E471" s="2"/>
+      <c r="F471" s="2"/>
+      <c r="G471" s="2"/>
+      <c r="I471" s="2"/>
+    </row>
+    <row r="472" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E472" s="2"/>
+      <c r="F472" s="2"/>
+      <c r="G472" s="2"/>
+      <c r="I472" s="2"/>
+    </row>
+    <row r="473" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E473" s="2"/>
+      <c r="F473" s="2"/>
+      <c r="G473" s="2"/>
+      <c r="I473" s="2"/>
+    </row>
+    <row r="474" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E474" s="2"/>
+      <c r="F474" s="2"/>
+      <c r="G474" s="2"/>
+      <c r="I474" s="2"/>
+    </row>
+    <row r="475" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E475" s="2"/>
+      <c r="F475" s="2"/>
+      <c r="G475" s="2"/>
+      <c r="I475" s="2"/>
+    </row>
+    <row r="476" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E476" s="2"/>
+      <c r="F476" s="2"/>
+      <c r="G476" s="2"/>
+      <c r="I476" s="2"/>
+    </row>
+    <row r="477" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E477" s="2"/>
+      <c r="F477" s="2"/>
+      <c r="G477" s="2"/>
+      <c r="I477" s="2"/>
+    </row>
+    <row r="478" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E478" s="2"/>
+      <c r="F478" s="2"/>
+      <c r="G478" s="2"/>
+      <c r="I478" s="2"/>
+    </row>
+    <row r="479" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E479" s="2"/>
+      <c r="F479" s="2"/>
+      <c r="G479" s="2"/>
+      <c r="I479" s="2"/>
+    </row>
+    <row r="480" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E480" s="2"/>
+      <c r="F480" s="2"/>
+      <c r="G480" s="2"/>
+      <c r="I480" s="2"/>
+    </row>
+    <row r="481" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E481" s="2"/>
+      <c r="F481" s="2"/>
+      <c r="G481" s="2"/>
+      <c r="I481" s="2"/>
+    </row>
+    <row r="482" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E482" s="2"/>
+      <c r="F482" s="2"/>
+      <c r="G482" s="2"/>
+      <c r="I482" s="2"/>
+    </row>
+    <row r="483" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E483" s="2"/>
+      <c r="F483" s="2"/>
+      <c r="G483" s="2"/>
+      <c r="I483" s="2"/>
+    </row>
+    <row r="484" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E484" s="2"/>
+      <c r="F484" s="2"/>
+      <c r="G484" s="2"/>
+      <c r="I484" s="2"/>
+    </row>
+    <row r="485" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E485" s="2"/>
+      <c r="F485" s="2"/>
+      <c r="G485" s="2"/>
+      <c r="I485" s="2"/>
+    </row>
+    <row r="486" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E486" s="2"/>
+      <c r="F486" s="2"/>
+      <c r="G486" s="2"/>
+      <c r="I486" s="2"/>
+    </row>
+    <row r="487" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E487" s="2"/>
+      <c r="F487" s="2"/>
+      <c r="G487" s="2"/>
+      <c r="I487" s="2"/>
+    </row>
+    <row r="488" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E488" s="2"/>
+      <c r="F488" s="2"/>
+      <c r="G488" s="2"/>
+      <c r="I488" s="2"/>
+    </row>
+    <row r="489" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E489" s="2"/>
+      <c r="F489" s="2"/>
+      <c r="G489" s="2"/>
+      <c r="I489" s="2"/>
+    </row>
+    <row r="490" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E490" s="2"/>
+      <c r="F490" s="2"/>
+      <c r="G490" s="2"/>
+      <c r="I490" s="2"/>
+    </row>
+    <row r="491" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E491" s="2"/>
+      <c r="F491" s="2"/>
+      <c r="G491" s="2"/>
+      <c r="I491" s="2"/>
+    </row>
+    <row r="492" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E492" s="2"/>
+      <c r="F492" s="2"/>
+      <c r="G492" s="2"/>
+      <c r="I492" s="2"/>
+    </row>
+    <row r="493" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E493" s="2"/>
+      <c r="F493" s="2"/>
+      <c r="G493" s="2"/>
+      <c r="I493" s="2"/>
+    </row>
+    <row r="494" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E494" s="2"/>
+      <c r="F494" s="2"/>
+      <c r="G494" s="2"/>
+      <c r="I494" s="2"/>
+    </row>
+    <row r="495" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E495" s="2"/>
+      <c r="F495" s="2"/>
+      <c r="G495" s="2"/>
+      <c r="I495" s="2"/>
+    </row>
+    <row r="496" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E496" s="2"/>
+      <c r="F496" s="2"/>
+      <c r="G496" s="2"/>
+      <c r="I496" s="2"/>
+    </row>
+    <row r="497" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E497" s="2"/>
+      <c r="F497" s="2"/>
+      <c r="G497" s="2"/>
+      <c r="I497" s="2"/>
+    </row>
+    <row r="498" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E498" s="2"/>
+      <c r="F498" s="2"/>
+      <c r="G498" s="2"/>
+      <c r="I498" s="2"/>
+    </row>
+    <row r="499" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E499" s="2"/>
+      <c r="F499" s="2"/>
+      <c r="G499" s="2"/>
+      <c r="I499" s="2"/>
+    </row>
+    <row r="500" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E500" s="2"/>
+      <c r="F500" s="2"/>
+      <c r="G500" s="2"/>
+      <c r="I500" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
